--- a/Sprint 2/burndown 2.xlsx
+++ b/Sprint 2/burndown 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -53,6 +53,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -85,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -99,6 +105,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +366,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -491,43 +498,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1776,10 +1783,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="C13" s="7">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1788,7 +1795,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1797,7 +1804,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1806,7 +1813,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1815,7 +1822,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1824,7 +1831,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,7 +1840,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1842,7 +1849,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1851,7 +1858,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1860,7 +1867,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1869,7 +1876,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,7 +1885,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1894,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1896,7 +1903,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1905,7 +1912,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1914,7 +1921,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1923,7 +1930,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1931,18 +1938,27 @@
         <v>3</v>
       </c>
       <c r="B30" s="3"/>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="3"/>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="3"/>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
